--- a/src/main/webapp/excel/excelupload_door_sample.xlsx
+++ b/src/main/webapp/excel/excelupload_door_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159C4CC5-8BF8-48DD-B2FD-AF3BC7B156E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DBD37-14F0-48D6-A73B-5200AC496349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2050" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="2990" windowWidth="24810" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,105 +25,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+  <si>
+    <t>권한그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출입문명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빌딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단말기코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케쥴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알람그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doorNm1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doorNm2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floorId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floorId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduleId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scheduleId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmgrpId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmgrpId2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terminalCd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>terminalCd2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authGroupId1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authGroupId2</t>
+  </si>
+  <si>
+    <t>빌딩 명</t>
+  </si>
+  <si>
+    <t>층 명</t>
+  </si>
+  <si>
+    <t>출입문 명</t>
+  </si>
+  <si>
+    <t>단말기 코드</t>
+  </si>
+  <si>
+    <t>1동</t>
+  </si>
+  <si>
+    <t>1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>1-C동 1층 143호 계단실</t>
+  </si>
+  <si>
+    <t>1-B동 1층 로비 부출입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-B동 2층 234호 계단실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0906L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0700L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1동 3층 347호 계단실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1동 4층 445호 계단실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1801R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2302L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3동 옥상층 2번 OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3동 옥상층 3번 IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2307R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2307L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-C동 B1층 지하주차장 자동문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0400L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01B104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌딩 코드(2자리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>층 코드(2자리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출입문 코드(6자리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +228,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -157,12 +245,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,20 +273,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,50 +625,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="6" width="14.08203125" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -566,58 +677,216 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
